--- a/templates/template.xlsx
+++ b/templates/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="type" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="action" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="enum" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="enum" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="type" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="action" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="_typemap" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -23,7 +23,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="93">
+  <si>
+    <t xml:space="preserve">enum
+論理名
+(optional)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enum
+name
+(camel case, クラス名)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enum
+member
+name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enum
+menber
+num
+(optional)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enum
+member
+displayName
+(optional)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enum
+member
+description
+(optional)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">備考</t>
+  </si>
   <si>
     <t xml:space="preserve">type
 論理名
@@ -46,9 +82,6 @@
     <t xml:space="preserve">property
 description
 (optional)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">備考</t>
   </si>
   <si>
     <t xml:space="preserve">action
@@ -93,51 +126,24 @@
 (optional)</t>
   </si>
   <si>
-    <t xml:space="preserve">enum
-論理名
-(optional)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enum
-name
-(camel case, クラス名)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enum
-member
-name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enum
-menber
-num
-(optional)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enum
-member
-displayName
-(optional)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enum
-member
-description
-(optional)</t>
-  </si>
-  <si>
     <t xml:space="preserve">type定義名</t>
   </si>
   <si>
     <t xml:space="preserve">json value</t>
   </si>
   <si>
+    <t xml:space="preserve">typescript</t>
+  </si>
+  <si>
     <t xml:space="preserve">messagepack value</t>
   </si>
   <si>
     <t xml:space="preserve">protobuf define</t>
   </si>
   <si>
+    <t xml:space="preserve">java</t>
+  </si>
+  <si>
     <t xml:space="preserve">c#</t>
   </si>
   <si>
@@ -201,10 +207,13 @@
     <t xml:space="preserve">array</t>
   </si>
   <si>
+    <t xml:space="preserve">type[]</t>
+  </si>
+  <si>
     <t xml:space="preserve">repeated V</t>
   </si>
   <si>
-    <t xml:space="preserve">type[]</t>
+    <t xml:space="preserve">List&lt;type&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">[Array&lt;type&gt;]</t>
@@ -228,6 +237,9 @@
     <t xml:space="preserve">[Array&lt;Integer&gt;]</t>
   </si>
   <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
     <t xml:space="preserve">string</t>
   </si>
   <si>
@@ -282,6 +294,9 @@
     <t xml:space="preserve">int32</t>
   </si>
   <si>
+    <t xml:space="preserve">byte</t>
+  </si>
+  <si>
     <t xml:space="preserve">sbyte</t>
   </si>
   <si>
@@ -298,9 +313,6 @@
   </si>
   <si>
     <t xml:space="preserve">uint32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">byte</t>
   </si>
   <si>
     <t xml:space="preserve">uint16</t>
@@ -406,7 +418,7 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
+      <left style="thin"/>
       <right/>
       <top/>
       <bottom/>
@@ -420,21 +432,21 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
+      <left style="thin"/>
       <right/>
       <top/>
       <bottom style="double"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+      <left style="hair"/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+      <left style="hair"/>
       <right/>
       <top/>
       <bottom style="double"/>
@@ -495,11 +507,23 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -507,11 +531,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -519,23 +543,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -543,7 +555,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -555,7 +567,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -571,7 +583,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -652,27 +664,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.69140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.69140625" defaultRowHeight="17" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="14.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="45.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="31.28"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="7" style="1" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="9.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="19.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="12.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="1" width="12.71"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="true" ht="31.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="6" customFormat="true" ht="78" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -688,12 +700,14 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AMI1" s="0"/>
-      <c r="AMJ1" s="0"/>
-    </row>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -712,53 +726,43 @@
   </sheetPr>
   <dimension ref="A1:AMJ1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.27734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.69140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="7" width="9.29"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="9.29"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="7" width="9.29"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="8" width="9.29"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="7" style="7" width="9.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="8" width="3.97"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1020" min="10" style="7" width="9.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="14.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="45.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="31.28"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="7" style="1" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="9.29"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true" ht="41.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+    <row r="1" s="6" customFormat="true" ht="31.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="AMG1" s="0"/>
-      <c r="AMH1" s="0"/>
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
@@ -778,50 +782,58 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:AMJ1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.69140625" defaultRowHeight="17" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.27734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="13" width="19.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="13" width="12.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="1" width="12.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="10" width="9.29"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="11" width="9.29"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="10" width="9.29"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="11" width="9.29"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="7" style="10" width="9.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="11" width="3.97"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1020" min="10" style="10" width="9.29"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="true" ht="78" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="15" customFormat="true" ht="41.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="E1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="I1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="AMG1" s="0"/>
+      <c r="AMH1" s="0"/>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -838,25 +850,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.69140625" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="16" width="6.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.42"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="6.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="17" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="16" width="12.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.28"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="17" width="14.56"/>
   </cols>
   <sheetData>
-    <row r="1" s="18" customFormat="true" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="18" t="s">
         <v>20</v>
       </c>
@@ -875,570 +885,766 @@
       <c r="F1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" s="20" customFormat="true" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="20" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="20" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>28</v>
       </c>
       <c r="D2" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="0" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G3" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="0" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G4" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>38</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" s="20" customFormat="true" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" s="20" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
-      <c r="G6" s="22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="I6" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E7" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="C8" s="16" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="D8" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>45</v>
-      </c>
       <c r="E8" s="23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F8" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="23" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H8" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>52</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="23" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>59</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>58</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="G11" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="23" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>61</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>61</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="23" t="s">
+      <c r="E12" s="0" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F12" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>61</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="E14" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="0" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="23" t="s">
+      <c r="F15" s="0" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="23" t="s">
+      <c r="G15" s="23" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H15" s="23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>66</v>
+        <v>63</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>61</v>
       </c>
       <c r="D16" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="23" t="s">
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>68</v>
-      </c>
       <c r="B17" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>61</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="23" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="C18" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="0" t="s">
+      <c r="E18" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="F18" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="G18" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="23" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="C19" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="23" t="s">
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="23" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>66</v>
+      <c r="C20" s="16" t="s">
+        <v>61</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="23" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>66</v>
+      <c r="C21" s="16" t="s">
+        <v>61</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="23" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>66</v>
+      <c r="C22" s="16" t="s">
+        <v>61</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="23" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="C23" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23" s="23" t="s">
+      <c r="H24" s="23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="23" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>66</v>
+      <c r="C25" s="16" t="s">
+        <v>61</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>82</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>82</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>61</v>
       </c>
       <c r="D26" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="E26" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="F26" s="23" t="s">
+      <c r="F26" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="H26" s="23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="23" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>66</v>
+      <c r="C27" s="16" t="s">
+        <v>61</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F27" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="23" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>66</v>
+      <c r="C28" s="16" t="s">
+        <v>61</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="F28" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" s="23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="23" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="29" s="24" customFormat="true" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="F29" s="25" t="s">
+      <c r="C29" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="H29" s="23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="G29" s="26" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E33" s="23"/>
+      <c r="C30" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="H30" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="I30" s="26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G34" s="23"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
